--- a/data/trans_dic/P71_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P71_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,57; 9,62</t>
+          <t>4,6; 9,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,52; 18,78</t>
+          <t>11,52; 18,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,22; 16,03</t>
+          <t>9,31; 16,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,17; 7,53</t>
+          <t>3,15; 7,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,75; 18,2</t>
+          <t>9,7; 17,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,42; 19,11</t>
+          <t>10,59; 19,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,93; 17,07</t>
+          <t>10,1; 16,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 5,15</t>
+          <t>2,24; 5,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,1; 11,55</t>
+          <t>7,31; 11,69</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,93; 17,53</t>
+          <t>11,92; 17,92</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,36; 15,15</t>
+          <t>10,45; 15,39</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,99; 5,54</t>
+          <t>2,99; 5,55</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,57; 16,39</t>
+          <t>9,52; 16,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,6; 17,67</t>
+          <t>10,57; 17,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,31; 27,27</t>
+          <t>18,16; 26,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 5,93</t>
+          <t>2,33; 5,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,27; 23,7</t>
+          <t>15,62; 23,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,27; 21,79</t>
+          <t>13,39; 22,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,15; 30,0</t>
+          <t>20,8; 30,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,59; 8,85</t>
+          <t>4,56; 9,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,24; 18,93</t>
+          <t>13,47; 18,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,7; 18,56</t>
+          <t>12,83; 18,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>20,56; 27,2</t>
+          <t>20,66; 27,04</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,8; 6,44</t>
+          <t>3,87; 6,82</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,94; 17,93</t>
+          <t>12,09; 18,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,1; 38,1</t>
+          <t>30,27; 38,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32,84; 41,98</t>
+          <t>33,03; 41,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 14,07</t>
+          <t>2,97; 14,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,03; 28,32</t>
+          <t>15,75; 28,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,99; 34,79</t>
+          <t>23,54; 34,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,15; 41,78</t>
+          <t>25,93; 41,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,11; 15,95</t>
+          <t>8,21; 16,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,76; 19,38</t>
+          <t>13,81; 19,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>29,44; 35,72</t>
+          <t>29,25; 35,72</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32,81; 39,94</t>
+          <t>32,9; 40,97</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,84; 14,01</t>
+          <t>3,95; 13,78</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,24; 24,97</t>
+          <t>20,26; 25,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,48; 41,37</t>
+          <t>35,47; 41,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>35,83; 41,39</t>
+          <t>35,76; 41,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,91; 17,77</t>
+          <t>12,94; 18,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,34; 29,03</t>
+          <t>22,1; 29,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,98; 40,18</t>
+          <t>32,8; 40,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,23; 41,71</t>
+          <t>35,29; 42,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,29; 16,4</t>
+          <t>6,69; 16,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,74; 25,55</t>
+          <t>21,73; 25,54</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>35,38; 39,88</t>
+          <t>35,47; 39,98</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>36,29; 40,77</t>
+          <t>36,34; 40,88</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,71; 16,08</t>
+          <t>9,04; 16,0</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>28,83; 38,86</t>
+          <t>29,06; 38,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>36,96; 45,63</t>
+          <t>36,97; 45,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>43,22; 51,29</t>
+          <t>43,08; 51,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20,97; 28,6</t>
+          <t>21,09; 29,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>31,88; 40,11</t>
+          <t>31,42; 39,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>37,67; 45,12</t>
+          <t>37,67; 45,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>49,71; 56,82</t>
+          <t>49,61; 57,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>27,92; 50,8</t>
+          <t>27,8; 53,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31,69; 38,2</t>
+          <t>31,66; 38,25</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>38,6; 44,06</t>
+          <t>38,58; 44,1</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>47,78; 53,07</t>
+          <t>47,85; 53,42</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>26,44; 47,14</t>
+          <t>26,43; 44,93</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,49; 15,85</t>
+          <t>8,38; 16,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,91; 25,67</t>
+          <t>15,81; 26,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,79; 27,73</t>
+          <t>18,21; 28,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,68; 22,5</t>
+          <t>7,44; 22,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>30,17; 35,53</t>
+          <t>29,79; 35,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,52; 34,31</t>
+          <t>28,36; 34,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>30,11; 35,95</t>
+          <t>29,95; 36,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,79; 20,33</t>
+          <t>14,91; 20,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,33; 30,93</t>
+          <t>26,08; 30,73</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>26,79; 31,82</t>
+          <t>26,95; 31,71</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>28,42; 33,53</t>
+          <t>28,21; 33,58</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>14,14; 19,7</t>
+          <t>14,02; 19,4</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,69; 19,47</t>
+          <t>16,86; 19,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>29,06; 32,11</t>
+          <t>28,82; 32,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>31,98; 35,35</t>
+          <t>31,97; 35,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,11; 13,52</t>
+          <t>9,33; 13,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,35; 29,49</t>
+          <t>26,25; 29,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>29,77; 33,17</t>
+          <t>30,12; 33,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>34,15; 37,37</t>
+          <t>34,21; 37,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,18; 23,5</t>
+          <t>13,97; 22,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22,01; 24,08</t>
+          <t>22,07; 24,08</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>29,87; 32,23</t>
+          <t>29,83; 32,22</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>33,56; 35,87</t>
+          <t>33,55; 35,83</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>12,64; 17,39</t>
+          <t>12,67; 17,73</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que llega a fin de mes con dificultad o mucha dificultad</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>31640</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>64126</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>52701</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>24411</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>40497</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>45733</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>45373</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>15073</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>72138</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>109859</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>98073</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>39485</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>21502; 44317</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>50017; 81837</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>39514; 67902</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>15850; 36156</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>29343; 54243</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>33192; 60937</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>35061; 58949</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9967; 23654</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>56314; 90055</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>89076; 133907</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>80630; 118755</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>28380; 52614</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>45397</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>57248</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>84142</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>16976</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>71049</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>58602</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>93946</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>24792</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>116446</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>115849</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>178088</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>41768</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>34402; 59833</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>43743; 73300</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>68188; 100676</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>10521; 26194</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>57173; 86295</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>45121; 74990</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>77086; 113880</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>17370; 34422</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>97945; 137213</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>96328; 137607</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>154166; 201738</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>32215; 56743</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>80199</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>212739</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>192891</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>55704</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>35169</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>74101</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>54649</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>19364</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>115367</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>286840</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>247540</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>75068</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>64530; 96531</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>190239; 241384</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>171017; 214188</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>19845; 93590</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>25962; 47749</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>60792; 90040</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>42305; 67242</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>13615; 26774</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>96460; 134651</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>259307; 316715</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>224036; 278975</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>32951; 114826</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>726</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>275225</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>441776</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>441010</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>156060</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>177362</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>278835</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>316268</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>120561</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>452587</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>720610</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>757278</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>276622</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>247502; 306005</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>409119; 477998</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>408151; 476799</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>132629; 187644</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>153065; 201800</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>250821; 308096</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>289647; 346558</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>65027; 159359</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>416065; 488824</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>680450; 766858</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>713166; 802223</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>180461; 319641</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>648</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>117427</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>211054</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>292204</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>115554</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>196181</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>312859</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>392242</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>280608</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>313608</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>523913</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>684446</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>396162</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>100674; 134638</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>188753; 234232</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>264887; 318513</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>98789; 136736</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>173939; 218070</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>285688; 343319</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>365767; 420547</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>223253; 432141</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>284939; 344228</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>489540; 559672</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>647073; 722348</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>335993; 571267</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>34254</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>54043</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>63917</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>30037</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>402075</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>346813</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>354844</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>130374</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>436328</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>400855</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>418761</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>160411</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>24607; 47178</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>41746; 68864</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>51830; 80990</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>16509; 48936</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>367682; 433972</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>312699; 378704</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>321947; 387579</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>111567; 152194</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>398560; 469617</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>368379; 433309</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>383577; 456497</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>136020; 188200</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>976</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1065</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1028</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1186</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1459</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>2251</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1289</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>584141</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1040984</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1126865</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>398742</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>922333</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1116942</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1257322</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>590773</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1506474</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>2157926</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>2384187</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>989515</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>543525; 632497</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>981170; 1096333</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1073694; 1183343</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>311316; 450132</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>869961; 972030</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1064710; 1179254</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1202114; 1320582</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>491141; 776631</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1443011; 1574333</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>2069623; 2235419</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>2305511; 2462635</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>868009; 1215053</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P71_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P71_R-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
